--- a/api_framework.xlsx
+++ b/api_framework.xlsx
@@ -165,14 +165,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94070A"/>
-        <bgColor rgb="FF800000"/>
+        <fgColor rgb="FF5565AF"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEF413D"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FF1C3687"/>
+        <bgColor rgb="FF003366"/>
       </patternFill>
     </fill>
   </fills>
@@ -281,7 +281,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF94070A"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -318,8 +318,8 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFEF413D"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF5565AF"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -327,7 +327,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1C3687"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -342,7 +342,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
